--- a/HINS_MCU_V3.2_M/doc/MIP.xlsx
+++ b/HINS_MCU_V3.2_M/doc/MIP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.0_M\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.2_M\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7F01E5-634F-434B-B040-F755E6F62343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977481EE-A24D-44F0-9F51-0A67E0DDBE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -1031,23 +1031,23 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.125" style="2"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1568,9 +1568,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="34.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/HINS_MCU_V3.2_M/doc/MIP.xlsx
+++ b/HINS_MCU_V3.2_M/doc/MIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.2_M\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977481EE-A24D-44F0-9F51-0A67E0DDBE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78444F38-D31F-48F1-B8DC-282308BEA41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,14 @@
   </si>
   <si>
     <t>讀取 EXTERNAL_HEADING 是否 enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 01 02 02 01 E0 C6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,26 +1036,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.140625" style="2"/>
+    <col min="7" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1080,39 +1088,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="5" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H2," ",""))/2,2)</f>
-        <v>0A</v>
+        <v>08</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I2" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G2&amp;" "&amp;H2&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0A 75 65 0C 04 04 41 02 01 32 9F 51 52</v>
+        <v>BC CB 97 08 75 65 01 02 02 01 E0 C6 51 52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1123,22 +1123,27 @@
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G16" si="0">DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
+        <f>DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
         <v>0A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I3" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G3&amp;" "&amp;H3&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0A 75 65 0C 04 04 41 02 02 33 A0 51 52</v>
+        <v>BC CB 97 0A 75 65 0C 04 04 41 02 01 32 9F 51 52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1151,20 +1156,20 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>0D</v>
+        <f t="shared" ref="G4:G17" si="0">DEC2HEX(LEN(SUBSTITUTE(H4," ",""))/2,2)</f>
+        <v>0A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I5" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G4&amp;" "&amp;H4&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0D 75 65 0C 07 07 41 01 01 05 21 00 5D AE 51 52</v>
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G4&amp;" "&amp;H4&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0A 75 65 0C 04 04 41 02 02 33 A0 51 52</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1181,69 +1186,70 @@
         <v>0D</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I6" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G5&amp;" "&amp;H5&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0D 75 65 0C 07 07 41 01 01 05 21 00 5D AE 51 52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>0D</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="1"/>
         <v>BC CB 97 0D 75 65 0C 07 07 41 01 02 05 22 02 61 B6 51 52</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G6&amp;" "&amp;H6&amp;" 51"&amp;" 52"</f>
+      <c r="I7" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G7&amp;" "&amp;H7&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0A 75 65 01 04 04 09 02 12 00 C6 51 52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>0E</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" ref="I7:I16" si="2">"BC"&amp;" CB"&amp;" 97 "&amp;G7&amp;" "&amp;H7&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1259,94 +1265,91 @@
         <v>0E</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I17" si="2">"BC"&amp;" CB"&amp;" 97 "&amp;G8&amp;" "&amp;H8&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I9" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 01 C2 00 CA 8B 51 52</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 0A 75 65 7F 04 04 02 02 12 77 A5 51 52</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 12 75 65 7F 0C 0C 02 01 12 00 00 00 01 00 00 00 01 88 21 51 52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>0E</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
-      </c>
-    </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -1365,191 +1368,219 @@
         <v>0E</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0B</v>
+        <v>0E</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H14," ",""))/2,2)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>0B</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I14" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G14&amp;" "&amp;H14&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H15," ",""))/2,2)</f>
+        <v>08</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G15&amp;" "&amp;H15&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 08 75 65 01 02 02 02 E1 C7 51 52</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" ref="G20:G22" si="3">DEC2HEX(LEN(SUBSTITUTE(H20," ",""))/2,2)</f>
-        <v>0C</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" ref="I20:I22" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G20&amp;" "&amp;H20&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G23" si="3">DEC2HEX(LEN(SUBSTITUTE(H21," ",""))/2,2)</f>
+        <v>0C</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" ref="I21:I23" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G21&amp;" "&amp;H21&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="G22" s="3" t="str">
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="I22" s="2" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0C 75 65 0D 06 06 50 01 00 05 01 4A 74 51 52</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3" t="str">
+      <c r="G23" s="3" t="str">
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="I23" s="2" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0B 75 65 0D 05 05 50 02 00 05 48 22 51 52</v>
       </c>
@@ -1568,9 +1599,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/HINS_MCU_V3.2_M/doc/MIP.xlsx
+++ b/HINS_MCU_V3.2_M/doc/MIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.2_M\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78444F38-D31F-48F1-B8DC-282308BEA41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05AD797-3BDB-4019-8385-A02EA513E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -1039,23 +1039,23 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.125" style="2"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1599,9 +1599,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="34.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/HINS_MCU_V3.2_M/doc/MIP.xlsx
+++ b/HINS_MCU_V3.2_M/doc/MIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.2_M\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05AD797-3BDB-4019-8385-A02EA513E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C98D7-1857-4241-8249-70EB6BC8ACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-315" yWindow="1530" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enable EXTERNAL_HEADING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,15 +319,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讀取 EXTERNAL_HEADING 是否 enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>75 65 01 02 02 01 E0 C6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀 PPS Source 配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 03 03 28 02 16 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPS Source 配置 GNSS 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 04 04 28 01 02 19 53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPS Source 配置 GNSS 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPS Source 配置 crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 04 04 28 01 01 18 52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 04 04 28 01 04 1B 55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀 PPS 同步狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 06 06 0D A0 00 01 02 A2 92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取 GNSS Dual Antenna Status (0x82, 0x49) 資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">設定 10 Hz 吐出 GPS Timestamp (0xFF,0xD3) 與 GNSS Dual Antenna Status (0x82,0x49) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">設定 10 Hz 吐出 GNSS Dual Antenna Status (0x82,0x49) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Stream Control_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Stream Control_OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 05 05 11 01 82 00 84 1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 Sensor-to-Vehicle Frame Transformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取 Sensor-to-Vehicle Frame Transformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 03 03 33 02 21 4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取天線1 的 offset 配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取天線2 的 offset 配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0D 04 04 54 02 01 46 DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0D 04 04 54 02 02 47 DF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取 Frame id=1 Configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 13 05 05 01 02 01 01 FC 0E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Aiding measurement EXTERNAL_HEADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取 Aiding measurement EXTERNAL_HEADING 是否 enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,9 +524,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +533,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,74 +1184,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="22" width="9.140625" style="2"/>
+    <col min="1" max="1" width="47.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5" t="str">
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H2," ",""))/2,2)</f>
         <v>08</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>75</v>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I2" t="str">
         <f>"BC"&amp;" CB"&amp;" 97 "&amp;G2&amp;" "&amp;H2&amp;" 51"&amp;" 52"</f>
@@ -1111,29 +1259,29 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>41</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="4" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
         <v>0A</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="str">
@@ -1142,24 +1290,24 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>41</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5" t="str">
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G17" si="0">DEC2HEX(LEN(SUBSTITUTE(H4," ",""))/2,2)</f>
         <v>0A</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="str">
@@ -1168,24 +1316,24 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5" t="str">
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0D</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I5" t="str">
@@ -1194,24 +1342,24 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>41</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5" t="str">
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0D</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="str">
@@ -1220,26 +1368,26 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I7" t="str">
@@ -1248,23 +1396,23 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0E</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="str">
@@ -1273,23 +1421,23 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0E</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I9" t="str">
@@ -1298,23 +1446,23 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0A</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I10" t="str">
@@ -1323,23 +1471,23 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I11" t="str">
@@ -1348,26 +1496,26 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0E</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I12" t="str">
@@ -1376,26 +1524,26 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0E</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I13" t="str">
@@ -1404,20 +1552,20 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0B</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I14" t="str">
@@ -1426,20 +1574,20 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="4" t="str">
         <f>DEC2HEX(LEN(SUBSTITUTE(H15," ",""))/2,2)</f>
         <v>08</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I15" t="str">
@@ -1448,20 +1596,20 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>08</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I16" t="str">
@@ -1470,119 +1618,485 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="3" t="str">
+      <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="I17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" ref="G21:G23" si="3">DEC2HEX(LEN(SUBSTITUTE(H21," ",""))/2,2)</f>
+      <c r="G21" s="2" t="str">
+        <f t="shared" ref="G21:G37" si="3">DEC2HEX(LEN(SUBSTITUTE(H21," ",""))/2,2)</f>
         <v>0C</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" ref="I21:I23" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G21&amp;" "&amp;H21&amp;" 51"&amp;" 52"</f>
+      <c r="I21" s="1" t="str">
+        <f t="shared" ref="I21:I39" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G21&amp;" "&amp;H21&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="3" t="str">
+      <c r="G22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="I22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0C 75 65 0D 06 06 50 01 00 05 01 4A 74 51 52</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:9" ht="31.5">
+      <c r="A23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="3" t="str">
+      <c r="G23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="2" t="str">
+      <c r="H23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="1" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0B 75 65 0D 05 05 50 02 00 05 48 22 51 52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0A</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0A 75 65 0C 04 04 28 01 02 19 53 51 52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0A</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0A 75 65 0C 04 04 28 01 01 18 52 51 52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0A</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0A 75 65 0C 04 04 28 01 04 1B 55 51 52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>09</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 09 75 65 0C 03 03 28 02 16 34 51 52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>09</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 09 75 65 0C 03 03 33 02 21 4A 51 52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0A</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0A 75 65 0D 04 04 54 02 01 46 DE 51 52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0A</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0A 75 65 0D 04 04 54 02 02 47 DF 51 52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0B</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0B 75 65 13 05 05 01 02 01 01 FC 0E 51 52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0C</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G34&amp;" "&amp;H34&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 98 0C 75 65 0C 06 06 0D A0 00 01 02 A2 92 51 52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="31.5">
+      <c r="A36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="31.5">
+      <c r="A37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>0E</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8" t="str">
+        <f t="shared" ref="G38:G39" si="5">DEC2HEX(LEN(SUBSTITUTE(H38," ",""))/2,2)</f>
+        <v>0B</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>0B</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 00 84 1B 51 52</v>
       </c>
     </row>
   </sheetData>
@@ -1601,46 +2115,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/HINS_MCU_V3.2_M/doc/MIP.xlsx
+++ b/HINS_MCU_V3.2_M/doc/MIP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.2_M\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C98D7-1857-4241-8249-70EB6BC8ACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474DAB28-6A35-4F31-99C1-685EADC0ED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="1530" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="115">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +468,26 @@
   </si>
   <si>
     <t>讀取 Aiding measurement EXTERNAL_HEADING 是否 enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀 Aiding Measurement Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 10 Hz 吐出 GPS Timestamp (0xFF,0xD3)，GNSS Dual Antenna Status (0x82,0x49)與Aiding Measurement Summary (0x82, 0x46)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 08 08 0F 01 82 01 46 00 64 33 06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 10 Hz 吐出 Aiding Measurement Summary (0x82, 0x46)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -534,7 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1184,15 +1203,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1207,7 +1226,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1236,7 +1255,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1259,7 +1278,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1290,7 +1309,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1316,7 +1335,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1342,7 +1361,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1368,7 +1387,7 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1396,7 +1415,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1421,7 +1440,7 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1446,7 +1465,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1471,7 +1490,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1496,7 +1515,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1524,7 +1543,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1552,7 +1571,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1574,7 +1593,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1596,7 +1615,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1618,7 +1637,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1640,7 +1659,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1651,7 +1670,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1662,7 +1681,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1672,19 +1691,19 @@
         <v>65</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" ref="G21:G37" si="3">DEC2HEX(LEN(SUBSTITUTE(H21," ",""))/2,2)</f>
+        <f t="shared" ref="G21:G40" si="3">DEC2HEX(LEN(SUBSTITUTE(H21," ",""))/2,2)</f>
         <v>0C</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f t="shared" ref="I21:I39" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G21&amp;" "&amp;H21&amp;" 51"&amp;" 52"</f>
+        <f t="shared" ref="I21:I42" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G21&amp;" "&amp;H21&amp;" 51"&amp;" 52"</f>
         <v>BC CB 97 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1709,7 +1728,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="31.5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1734,7 +1753,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1759,7 +1778,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1775,7 +1794,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>82</v>
       </c>
       <c r="I25" s="1" t="str">
@@ -1784,7 +1803,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1800,7 +1819,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I26" s="1" t="str">
@@ -1809,7 +1828,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1825,7 +1844,7 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I27" s="1" t="str">
@@ -1834,13 +1853,13 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1856,7 +1875,7 @@
         <f t="shared" si="3"/>
         <v>09</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I29" s="1" t="str">
@@ -1865,7 +1884,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1881,7 +1900,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>103</v>
       </c>
       <c r="I30" s="1" t="str">
@@ -1890,7 +1909,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1906,7 +1925,7 @@
         <f t="shared" si="3"/>
         <v>0A</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>104</v>
       </c>
       <c r="I31" s="1" t="str">
@@ -1915,7 +1934,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1931,7 +1950,7 @@
         <f t="shared" si="3"/>
         <v>0B</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>107</v>
       </c>
       <c r="I32" s="1" t="str">
@@ -1940,161 +1959,240 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8" t="str">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7" t="str">
         <f t="shared" si="3"/>
         <v>0C</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="5" t="str">
+      <c r="I34" t="str">
         <f>"BC"&amp;" CB"&amp;" 98 "&amp;G34&amp;" "&amp;H34&amp;" 51"&amp;" 52"</f>
         <v>BC CB 98 0C 75 65 0C 06 06 0D A0 00 01 02 A2 92 51 52</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>0C</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" t="str">
+        <f>"BC"&amp;" CB"&amp;" 98 "&amp;G35&amp;" "&amp;H35&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 98 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" ht="31.5">
-      <c r="A36" s="7" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" ht="31.5">
+      <c r="A37" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8" t="str">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7" t="str">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="9" t="str">
+      <c r="I37" s="8" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 11 75 65 0C 0B 0B 0F 01 82 02 D3 00 64 49 00 64 74 78 51 52</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="31.5">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:9" ht="31.5">
+      <c r="A38" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="8" t="str">
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7" t="str">
         <f t="shared" si="3"/>
         <v>0E</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="9" t="str">
+      <c r="I38" s="8" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:9" ht="47.25">
+      <c r="A39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 14 75 65 0C 0E 0E 0F 01 82 03 D3 00 64 49 00 64 46 00 64 25 6B 51 52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31.5">
+      <c r="A40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>0E</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 46 00 64 33 06 51 52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="8" t="str">
-        <f t="shared" ref="G38:G39" si="5">DEC2HEX(LEN(SUBSTITUTE(H38," ",""))/2,2)</f>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7" t="str">
+        <f t="shared" ref="G41:G42" si="5">DEC2HEX(LEN(SUBSTITUTE(H41," ",""))/2,2)</f>
         <v>0B</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="9" t="str">
+      <c r="I41" s="8" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="7" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="8" t="str">
+      <c r="F42" s="8"/>
+      <c r="G42" s="7" t="str">
         <f t="shared" si="5"/>
         <v>0B</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="9" t="str">
+      <c r="I42" s="8" t="str">
         <f t="shared" si="4"/>
         <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 00 84 1B 51 52</v>
       </c>
